--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92065945-AC39-4AFF-A0CF-A2BC4EB550A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2066A86-F82E-4E7A-AEBA-FD9DB24FB5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -320,7 +320,7 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2066A86-F82E-4E7A-AEBA-FD9DB24FB5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81FDFB-6DCA-4D5E-AD2E-43C77AB8094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>ZX-v1-3fa-s</t>
-  </si>
-  <si>
     <t>สมหมาย</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>k52-sc6k0sSFA</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -699,7 +699,6 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="16384" max="16384" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -716,10 +715,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -910,7 +909,7 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
@@ -921,32 +920,32 @@
       <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>68</v>
@@ -958,46 +957,46 @@
         <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" t="s">
         <v>82</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AG2" t="s">
         <v>83</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>84</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>68</v>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE81FDFB-6DCA-4D5E-AD2E-43C77AB8094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC85F41-55A6-42AB-96D7-6AADBC8D6521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -317,10 +317,10 @@
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
     <t>k52-sc6k0sSFA</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>68</v>
@@ -924,7 +924,7 @@
         <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\20. contractbranch\Case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC85F41-55A6-42AB-96D7-6AADBC8D6521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0018B800-E211-4290-BE06-0A215C6ABCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>creationDate</t>
   </si>
@@ -689,8 +689,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -998,9 +998,7 @@
       <c r="BF2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="BP2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\20. contractbranch\Case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0018B800-E211-4290-BE06-0A215C6ABCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88444B3-7E94-4FB4-820D-113B4782C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88444B3-7E94-4FB4-820D-113B4782C1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C68B93-C2D8-4BDA-8AE3-AE27547E9A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,14 +320,14 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -689,19 +689,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C68B93-C2D8-4BDA-8AE3-AE27547E9A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEC418-FE7E-4649-8EEA-00BAE911F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BEC418-FE7E-4649-8EEA-00BAE911F180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E782024-94E7-44BE-8E8E-BFE1BE9477C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -390,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156F0CA-CA98-4554-813E-B09E2BA96AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E872CBE-B99E-44AD-BE67-9CB68DC09F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -390,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -430,7 +430,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -536,7 +536,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -678,7 +678,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E872CBE-B99E-44AD-BE67-9CB68DC09F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE75CB5-6A6C-4DFC-94E6-E9B6FD2A07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,14 +320,14 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -693,7 +693,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -701,7 +701,7 @@
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,7 +907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>

--- a/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/20. contractbranch/Case1/Auto_ContractBranch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE75CB5-6A6C-4DFC-94E6-E9B6FD2A07C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8C1EF9-E45F-4704-93FB-B4E7475B0414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <t>k52-sc6k0sSFA</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
